--- a/data/trans_orig/CoTrAQ_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>131695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120234</v>
+        <v>118296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141964</v>
+        <v>142642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7464368384946192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6814731693359748</v>
+        <v>0.6704905453167542</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.804640285688904</v>
+        <v>0.8084796398120281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -763,19 +763,19 @@
         <v>87094</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76238</v>
+        <v>74711</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97400</v>
+        <v>97270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6808575649954048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5959902832624582</v>
+        <v>0.5840551722961905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7614247379096829</v>
+        <v>0.7604104900434692</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -784,19 +784,19 @@
         <v>218789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200861</v>
+        <v>201894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>233452</v>
+        <v>233082</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7188739708886613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6599659231431173</v>
+        <v>0.6633605638338292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7670507481931212</v>
+        <v>0.7658366050494196</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>44737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34468</v>
+        <v>33790</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56198</v>
+        <v>58136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2535631615053808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1953597143110961</v>
+        <v>0.191520360187972</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3185268306640254</v>
+        <v>0.3295094546832459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -834,19 +834,19 @@
         <v>40824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30518</v>
+        <v>30648</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51680</v>
+        <v>53207</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3191424350045952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2385752620903174</v>
+        <v>0.2395895099565308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.404009716737542</v>
+        <v>0.4159448277038096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -855,19 +855,19 @@
         <v>85561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70898</v>
+        <v>71268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103489</v>
+        <v>102456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2811260291113387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2329492518068786</v>
+        <v>0.2341633949505804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3400340768568824</v>
+        <v>0.3366394361661705</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>592505</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>563555</v>
+        <v>562968</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>620854</v>
+        <v>621009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6685647401633452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6358982171483788</v>
+        <v>0.6352351716868794</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7005519415320879</v>
+        <v>0.7007267687780483</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>311</v>
@@ -980,19 +980,19 @@
         <v>332098</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>309129</v>
+        <v>309617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>355552</v>
+        <v>354695</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6071965247249829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5652003078497535</v>
+        <v>0.5660925918100229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.650078608876216</v>
+        <v>0.6485114088365982</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>872</v>
@@ -1001,19 +1001,19 @@
         <v>924604</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>885913</v>
+        <v>885397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>960823</v>
+        <v>959167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6451449660198604</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6181486588926325</v>
+        <v>0.6177883978395472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6704170587806857</v>
+        <v>0.6692615935793123</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>293730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265381</v>
+        <v>265226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>322680</v>
+        <v>323267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3314352598366548</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2994480584679121</v>
+        <v>0.299273231221952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3641017828516213</v>
+        <v>0.3647648283131211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>200</v>
@@ -1051,19 +1051,19 @@
         <v>214839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191385</v>
+        <v>192242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>237808</v>
+        <v>237320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3928034752750171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.349921391123784</v>
+        <v>0.3514885911634015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4347996921502464</v>
+        <v>0.433907408189977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>478</v>
@@ -1072,19 +1072,19 @@
         <v>508568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>472349</v>
+        <v>474005</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>547259</v>
+        <v>547775</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3548550339801396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3295829412193143</v>
+        <v>0.3307384064206878</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3818513411073675</v>
+        <v>0.3822116021604529</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>251410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233718</v>
+        <v>235182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>264336</v>
+        <v>266180</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8103139705923181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7532895220942982</v>
+        <v>0.7580070604250831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8519747329451035</v>
+        <v>0.8579168357862406</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>153</v>
@@ -1197,19 +1197,19 @@
         <v>169992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155592</v>
+        <v>155340</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182812</v>
+        <v>183188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.752435765538523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.688697026553084</v>
+        <v>0.6875812138914602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8091821497669301</v>
+        <v>0.8108442264665973</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -1218,19 +1218,19 @@
         <v>421402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>399140</v>
+        <v>397112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>440703</v>
+        <v>438745</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7859269761281384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7444070443033691</v>
+        <v>0.7406255027232583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8219226967681418</v>
+        <v>0.8182714733860473</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>58853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45927</v>
+        <v>44083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76545</v>
+        <v>75081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1896860294076819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1480252670548965</v>
+        <v>0.1420831642137594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2467104779057017</v>
+        <v>0.2419929395749169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1268,19 +1268,19 @@
         <v>55930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43110</v>
+        <v>42734</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70330</v>
+        <v>70582</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.247564234461477</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1908178502330699</v>
+        <v>0.1891557735334027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.311302973446916</v>
+        <v>0.3124187861085397</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -1289,19 +1289,19 @@
         <v>114783</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95482</v>
+        <v>97440</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137045</v>
+        <v>139073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2140730238718615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1780773032318586</v>
+        <v>0.1817285266139526</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2555929556966312</v>
+        <v>0.2593744972767417</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>975611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>937394</v>
+        <v>941250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1009516</v>
+        <v>1010708</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7106052813214007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6827692985815363</v>
+        <v>0.6855778135897946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7353005008193122</v>
+        <v>0.7361684205800594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>545</v>
@@ -1414,19 +1414,19 @@
         <v>589184</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>556351</v>
+        <v>561965</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>616825</v>
+        <v>618419</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6540841141540279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6176340322029104</v>
+        <v>0.623867318387284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6847699168816941</v>
+        <v>0.6865399298772948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1464</v>
@@ -1435,19 +1435,19 @@
         <v>1564795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1521125</v>
+        <v>1514379</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1612879</v>
+        <v>1610259</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6882132340135185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6690067252433689</v>
+        <v>0.6660396324083178</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7093611538131139</v>
+        <v>0.708208556846294</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>397319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363414</v>
+        <v>362222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>435536</v>
+        <v>431680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2893947186785993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2646994991806878</v>
+        <v>0.2638315794199406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3172307014184637</v>
+        <v>0.3144221864102055</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1485,19 +1485,19 @@
         <v>311593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283952</v>
+        <v>282358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>344426</v>
+        <v>338812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.345915885845972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3152300831183059</v>
+        <v>0.3134600701227051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3823659677970896</v>
+        <v>0.376132681612716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>657</v>
@@ -1506,19 +1506,19 @@
         <v>708912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>660828</v>
+        <v>663448</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752582</v>
+        <v>759328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3117867659864815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2906388461868861</v>
+        <v>0.2917914431537059</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.330993274756631</v>
+        <v>0.3339603675916821</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>62159</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50877</v>
+        <v>50135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74745</v>
+        <v>73638</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.439909864992638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3600656745652115</v>
+        <v>0.3548166480647643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5289820173386878</v>
+        <v>0.5211509769824816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -1870,19 +1870,19 @@
         <v>25301</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17816</v>
+        <v>18029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33414</v>
+        <v>33115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3660049365937232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.257731632193793</v>
+        <v>0.2608053679802574</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4833594445159871</v>
+        <v>0.4790364270656969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -1891,19 +1891,19 @@
         <v>87460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73207</v>
+        <v>74298</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101913</v>
+        <v>103110</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4156310464732904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3478966467091291</v>
+        <v>0.3530832374466216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4843164742119756</v>
+        <v>0.4900020332651974</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>79140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66554</v>
+        <v>67661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90422</v>
+        <v>91164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5600901350073619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4710179826613121</v>
+        <v>0.4788490230175184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6399343254347885</v>
+        <v>0.6451833519352357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -1941,19 +1941,19 @@
         <v>43827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35714</v>
+        <v>36013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51312</v>
+        <v>51099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6339950634062768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5166405554840129</v>
+        <v>0.5209635729343028</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.742268367806207</v>
+        <v>0.7391946320197423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -1962,19 +1962,19 @@
         <v>122967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108514</v>
+        <v>107317</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137220</v>
+        <v>136129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5843689535267096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5156835257880243</v>
+        <v>0.5099979667348025</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6521033532908709</v>
+        <v>0.6469167625533785</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>473617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>442209</v>
+        <v>439626</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>504633</v>
+        <v>503981</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.513015968613777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4789953291125736</v>
+        <v>0.4761974615202825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5466126957914266</v>
+        <v>0.545905636092157</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>299</v>
@@ -2087,19 +2087,19 @@
         <v>308011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282816</v>
+        <v>281428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>333659</v>
+        <v>336204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4734668449215141</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4347381096754421</v>
+        <v>0.4326044826450945</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5128923607604383</v>
+        <v>0.5168054234393964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>744</v>
@@ -2108,19 +2108,19 @@
         <v>781628</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>740392</v>
+        <v>741323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>822693</v>
+        <v>819482</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4966674317458916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4704650168959709</v>
+        <v>0.4710565353378575</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5227612485760257</v>
+        <v>0.5207209606453478</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>449584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418568</v>
+        <v>419220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480992</v>
+        <v>483575</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4869840313862231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4533873042085734</v>
+        <v>0.4540943639078429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5210046708874264</v>
+        <v>0.5238025384797173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>337</v>
@@ -2158,19 +2158,19 @@
         <v>342532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316884</v>
+        <v>314339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>367727</v>
+        <v>369115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5265331550784859</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4871076392395617</v>
+        <v>0.4831945765606036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5652618903245581</v>
+        <v>0.5673955173549055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -2179,19 +2179,19 @@
         <v>792117</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751052</v>
+        <v>754263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>833353</v>
+        <v>832422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5033325682541084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4772387514239746</v>
+        <v>0.4792790393546522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5295349831040295</v>
+        <v>0.5289434646621426</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>231906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>209449</v>
+        <v>212752</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>248990</v>
+        <v>250651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6655588189019456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6011094762987549</v>
+        <v>0.6105874883686461</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7145894244554781</v>
+        <v>0.7193557441701753</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -2304,19 +2304,19 @@
         <v>179182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160717</v>
+        <v>160464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196227</v>
+        <v>195204</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5809060427964281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5210419848805096</v>
+        <v>0.5202224190766653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6361660529069483</v>
+        <v>0.6328469600411164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>387</v>
@@ -2325,19 +2325,19 @@
         <v>411088</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>385987</v>
+        <v>383992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436213</v>
+        <v>435503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6258088318737528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5875961940939235</v>
+        <v>0.5845603784640935</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6640570834798738</v>
+        <v>0.6629757930745757</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>116532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99448</v>
+        <v>97787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138989</v>
+        <v>135686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3344411810980544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2854105755445219</v>
+        <v>0.2806442558298247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3988905237012452</v>
+        <v>0.3894125116313538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -2375,19 +2375,19 @@
         <v>129271</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112226</v>
+        <v>113249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147736</v>
+        <v>147989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.419093957203572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3638339470930518</v>
+        <v>0.3671530399588836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4789580151194904</v>
+        <v>0.4797775809233347</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>231</v>
@@ -2396,19 +2396,19 @@
         <v>245803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>220678</v>
+        <v>221388</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>270904</v>
+        <v>272899</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3741911681262472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3359429165201265</v>
+        <v>0.3370242069254244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4124038059060766</v>
+        <v>0.4154396215359066</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>767682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>728771</v>
+        <v>730465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>807761</v>
+        <v>807334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5433229814810354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5157840716158517</v>
+        <v>0.5169830607431372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5716890399738911</v>
+        <v>0.5713865693336518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>496</v>
@@ -2521,19 +2521,19 @@
         <v>512494</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>481005</v>
+        <v>481414</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>544284</v>
+        <v>546509</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.498474805422172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4678463304957228</v>
+        <v>0.4682448494441072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5293947976762352</v>
+        <v>0.5315588186497582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1213</v>
@@ -2542,19 +2542,19 @@
         <v>1280176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1228928</v>
+        <v>1233450</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1327711</v>
+        <v>1335990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5244338635715747</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5034397715256274</v>
+        <v>0.5052920605975643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5439069439911515</v>
+        <v>0.5472983355635723</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>645256</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605177</v>
+        <v>605604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684167</v>
+        <v>682473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4566770185189645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.428310960026109</v>
+        <v>0.4286134306663483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4842159283841484</v>
+        <v>0.4830169392568627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -2592,19 +2592,19 @@
         <v>515631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>483841</v>
+        <v>481616</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>547120</v>
+        <v>546711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.501525194577828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4706052023237647</v>
+        <v>0.4684411813502419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5321536695042772</v>
+        <v>0.5317551505558928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1105</v>
@@ -2613,19 +2613,19 @@
         <v>1160887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1113352</v>
+        <v>1105073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1212135</v>
+        <v>1207613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4755661364284253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4560930560088488</v>
+        <v>0.4527016644364277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4965602284743727</v>
+        <v>0.4947079394024358</v>
       </c>
     </row>
     <row r="15">
